--- a/Semaforos_app/www/baches.xlsx
+++ b/Semaforos_app/www/baches.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="baches" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.14499152%2C-86.86069965&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.13990815%2C-86.89619064&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,201 +482,921 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.14499152</t>
+          <t>21.13990815</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-86.86069965</t>
+          <t>-86.89619064</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45765.7527916166</v>
+        <v>45778.52965606887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.14635239%2C-86.84670925&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.14054858%2C-86.88623428&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Último reporte hace 1 día</t>
+          <t>Último reporte hace 5 días</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.14635239</t>
+          <t>21.14054858</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-86.84670925</t>
+          <t>-86.88623428</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45769.75279161699</v>
+        <v>45778.52965607181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.15531784%2C-86.86640739&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.17912966%2C-86.87370300&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Último reporte hace 5 días</t>
+          <t>Último reporte hace 24 min</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.15531784</t>
+          <t>21.17912966</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-86.86640739</t>
+          <t>-86.87370300</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45765.75279161707</v>
+        <v>45783.51298940524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.16528325%2C-86.85894012&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.15527781%2C-86.85155869&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Último reporte hace 3 días</t>
+          <t>Último reporte hace 3h 7 min</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.16528325</t>
+          <t>21.15527781</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-86.85894012</t>
+          <t>-86.85155869</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45767.75279161712</v>
+        <v>45783.39979496088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.16864493%2C-86.85988426&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.15847963%2C-86.90271378&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Último reporte hace 1 día</t>
+          <t>Último reporte hace 2 días</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.16864493</t>
+          <t>21.15847963</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-86.85988426</t>
+          <t>-86.90271378</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45769.75279161715</v>
+        <v>45781.52965607208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.16888504%2C-86.86091423&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.16168137%2C-86.86795235&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Último reporte hace 1 día</t>
+          <t>Último reporte hace 4 días</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.16888504</t>
+          <t>21.16168137</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-86.86091423</t>
+          <t>-86.86795235</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45769.75279161719</v>
+        <v>45779.52965607215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.17176641%2C-86.86692238&amp;navigate=yes&amp;zoom=15&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.16288201%2C-86.87730789&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Último reporte hace 7 días</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.16288201</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-86.87730789</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45776.52965607221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16440280%2C-86.88434601&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Último reporte hace 3 días</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21.17176641</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-86.86692238</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45767.75279161723</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.16440280</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-86.88434601</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45780.52965607227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16464292%2C-86.85164452&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Último reporte hace 32 min</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.16464292</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-86.85164452</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45783.50743385011</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16600362%2C-86.88245773&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Último reporte hace 2 días</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.16600362</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-86.88245773</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45781.52965607239</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16696410%2C-86.84795380&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Último reporte hace 4 días</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.16696410</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-86.84795380</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45779.52965607245</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16728426%2C-86.87902451&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Último reporte hace 18h 3 min</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.16728426</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-86.87902451</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45782.77757273916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16880500%2C-86.85902596&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Último reporte hace 4 días</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.16880500</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-86.85902596</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45779.52965607258</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.16976547%2C-86.83499336&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Último reporte hace 1h 3 min</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.16976547</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-86.83499336</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45783.48590607265</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.17800919%2C-86.86666489&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Último reporte hace 7h 2 min</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.17800919</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-86.86666489</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45783.23660051716</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.17912966%2C-86.87370300&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Último reporte hace 37 min</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.17912966</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-86.87370300</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45783.50396162835</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18025012%2C-86.90013885&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Último reporte hace 10h 49 min</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.18025012</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-86.90013885</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45783.0789616284</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18113048%2C-86.84658051&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Último reporte hace 15 h</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.18113048</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-86.84658051</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45782.90465607292</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18193080%2C-86.81928635&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Último reporte hace 10h 28 min</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.18193080</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-86.81928635</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45783.09354496188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18217089%2C-86.89026833&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Último reporte hace 1 día</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.18217089</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-86.89026833</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45782.52965607306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18361146%2C-86.85730934&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Último reporte hace 6 días</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.18361146</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-86.85730934</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45777.52965607311</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18417167%2C-86.82443619&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Último reporte hace 8 días</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.18417167</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-86.82443619</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45775.52965607316</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.19673594%2C-86.83293343&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Último reporte hace 7 días</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.19673594</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-86.83293343</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45776.52965607322</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18785303%2C-86.85782433&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Último reporte hace 7h 10 min</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.18785303</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-86.85782433</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45783.23104496217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18785303%2C-86.85782433&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Último reporte hace 7h 15 min</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.18785303</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-86.85782433</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45783.22757274001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.19241459%2C-86.87541962&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Último reporte hace 2 días</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.19241459</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-86.87541962</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45781.52965607341</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.19337490%2C-86.83722496&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Último reporte hace 1 día</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.19337490</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-86.83722496</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45782.52965607346</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.18593233%2C-86.86280251&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Último reporte hace 10h 52 min</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.18593233</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-86.86280251</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45783.07687829574</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.19953674%2C-86.82666779&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Último reporte hace 14h 55 min</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.19953674</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-86.82666779</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45782.90812829581</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.19953674%2C-86.82666779&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Último reporte hace 14h 55 min</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.19953674</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-86.82666779</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45782.90812829588</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.20401792%2C-86.85473442&amp;navigate=yes&amp;zoom=14&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Último reporte hace 9 días</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.20401792</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-86.85473442</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45774.52965607373</v>
       </c>
     </row>
   </sheetData>
